--- a/Ket_qua_hoa_don_final.xlsx
+++ b/Ket_qua_hoa_don_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,25 +774,21 @@
           <t>0110549057</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>C - Váng sữa Zott Monte
 Vani 55g</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Vỉ</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>60.419,76</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1138,25 +1134,21 @@
           <t>0110549057</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Nước ngọt vị cam Fanta
 160ml</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Lon</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>25.367,08</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1213,24 +1205,23 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>C - Muối chấm Hảo Hảo
 Tôm chua cay 120g</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hộp</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>15.312,49</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1360,24 +1351,23 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>C - Mì xốt tương đen
 Ottogi 135g</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>13.836,59</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1434,23 +1424,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>C - Mì bò hầm Ottogi 120g</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hàng hóa,
-dịch vụ</t>
+          <t>Gói</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>C - Mì bò hầm Ottogi 120g</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>7.840,73</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1507,24 +1496,23 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>C - Mì tương đen vị bò
 Ottogi 135g</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>9.132,15</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1581,24 +1569,23 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>FASO-Nước Gạo Rice
 Beverage 500ml</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Chai</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Chai</t>
+          <t>32.285,37</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1655,24 +1642,23 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>NISSIN-Mì Ramen vị thịt
 bằm 90g</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>8.763,17</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1729,24 +1715,23 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
           <t>NISSIN-Mì Ramen vị thịt
 hầm cay 95g</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>8.763,17</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1803,25 +1788,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>Snack Rong biển cuộn
 nướng vị truyền thống
 6g*90EA.</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>12.176,2</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1878,24 +1862,23 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
           <t>Xúc xích xông khói TH
 450g</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>50.641,91</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1952,24 +1935,23 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
           <t>Bánh kenju chà bông túi
 192g</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>23.983,42</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2026,24 +2008,23 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
           <t>Snack Lay's vị phở bò Hà
 Nội 88g</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>19.832,44</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2100,24 +2081,23 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
           <t>Xúc xích phomai viên
 300g - NH FOODS</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>50.641,91</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2174,23 +2154,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Đùi gà tiềm nấm</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hàng hóa,
-dịch vụ</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Đùi gà tiềm nấm</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>18.725,51</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2247,22 +2226,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 Ghi chú,
+diễn giải</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>Ghi chú,
-diễn giải</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>Thanh toán bằng điểm
 trong thẻ: 2646 đồng</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>24</v>
       </c>
@@ -4204,26 +4183,21 @@
           <t>0104474011</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>ống tròn cứng
 SP20</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Cây</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Cây</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -7997,26 +7971,21 @@
           <t>0800856833</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>Ống luồn dây điện DN 20
 D1</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>cây</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>cây</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -8801,26 +8770,21 @@
           <t>0800856833</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>Ống luồn dây điện DN 20
 D1</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>cây</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>cây</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -10915,23 +10879,22 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Củ sả 100g OMG</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Hàng hóa,
-dịch vụ</t>
+          <t>Gói</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Củ sả 100g OMG</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Gói</t>
+          <t>3.149,91</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -10988,24 +10951,23 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Hàng hóa,
-dịch vụ</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
           <t>Combo Fuji mini hộp 3
 bánh</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Hộp</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>8.506,71</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -11062,22 +11024,22 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 Ghi chú,
+diễn giải</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
-        <is>
-          <t>Ghi chú,
-diễn giải</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
         <is>
           <t>Thanh toán bằng điểm
 trong thẻ: 72116 đồng</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>13</v>
       </c>
@@ -11341,26 +11303,22 @@
           <t>0110549057</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>Sữa chua uống Probi Gold
 mật ong và curcumin từ nghệ
 130ml</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>Lốc</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>38.717,32</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -11415,25 +11373,21 @@
           <t>0110549057</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>C - Milo Lốc 8 có đường hộp
 180ml</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>Lốc</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>56.481,73</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -11563,12 +11517,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Chè bưởi</t>
+          <t>Combo Fuji mini hộp 3 bánh</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Cốc</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11578,11 +11532,11 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>9.565,46</t>
+          <t>22.774,89</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>9565.459999999999</v>
+        <v>22774.89</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11590,7 +11544,7 @@
         </is>
       </c>
       <c r="O153" t="n">
-        <v>765</v>
+        <v>1822</v>
       </c>
       <c r="P153" t="inlineStr"/>
     </row>
@@ -11635,102 +11589,28 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9 Ghi chú,
+diễn giải</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
-        <is>
-          <t>Hàng
-hóa, dịch
-vụ</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Combo Fuji mini hộp 3 bánh</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Hộp</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>22774.89</v>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O154" t="n">
-        <v>1822</v>
-      </c>
-      <c r="P154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Mẫu số_ 01 1748661071544.pdf</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>01GTKT0/001</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>K24TVE</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2033</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH BÁN LẺ VÀ SIÊU THỊ VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>0110549057</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Ghi chú,
-diễn giải</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
         <is>
           <t>Thanh toán bằng điểm trong
 thẻ: 5900 đồng</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>9</v>
       </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
